--- a/Documentation/Daily Activity Logs.xlsx
+++ b/Documentation/Daily Activity Logs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\EcoPlug\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Personal\Documents\EcoPlug\EcoPlug\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A805DB77-8F8A-4E91-A7A8-614E6AD54F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39693E08-EC42-4DE6-8C7C-62EE1CE62ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8D30DFDB-D960-46BF-9D00-AE43BFDA3586}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D30DFDB-D960-46BF-9D00-AE43BFDA3586}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,28 +20,16 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t xml:space="preserve">           Project Name:</t>
   </si>
   <si>
-    <t>ECO-PLUG</t>
-  </si>
-  <si>
     <t>Actions</t>
   </si>
   <si>
@@ -84,16 +72,28 @@
     <t>Daily Activity Log</t>
   </si>
   <si>
-    <t>UI Design (Mobile Design)</t>
-  </si>
-  <si>
-    <t>UI Design (Web  Design)</t>
-  </si>
-  <si>
-    <t>Using Figma</t>
-  </si>
-  <si>
-    <t>Homepage</t>
+    <t>Template using html</t>
+  </si>
+  <si>
+    <t>UI Design (Web Design)</t>
+  </si>
+  <si>
+    <t>EcoPlug</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>June 20, 2023</t>
+  </si>
+  <si>
+    <t>June 29, 2023</t>
+  </si>
+  <si>
+    <t>Remote Module</t>
+  </si>
+  <si>
+    <t>Dashboard Module</t>
   </si>
 </sst>
 </file>
@@ -111,15 +111,15 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -199,21 +199,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -224,9 +245,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -256,7 +291,7 @@
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>176213</xdr:rowOff>
@@ -335,9 +370,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -688,354 +723,411 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B77593-443E-4029-8AB0-6A0A726EAB1E}">
-  <dimension ref="C9:H46"/>
+  <dimension ref="C9:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="31.140625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="35" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="46.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="12"/>
+    <col min="2" max="2" width="8.88671875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="35" style="12" customWidth="1"/>
+    <col min="6" max="6" width="35" style="13" customWidth="1"/>
+    <col min="7" max="7" width="26.88671875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="46.33203125" style="13" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="13" style="12" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="9" t="s">
+      <c r="E13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="F13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="H13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="9" t="s">
+      <c r="G14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="F20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="F21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E14:E16"/>
+  <mergeCells count="6">
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
